--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="22515" windowHeight="7425"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="22515" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1598,17 +1598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="11" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.28515625" style="41" customWidth="1"/>
@@ -3575,7 +3576,8 @@
       <c r="AB46" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
